--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_isolated.xlsx
@@ -991,40 +991,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-4.68958215751968E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.042133761387142E-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-5.210691300231216E-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.647452789181977E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.344838296034032E-14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-5.210174139739508E-15</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.210646841688297E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.763387045926005E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-5.763392260735808E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.042129368337687E-14</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.763392256086945E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5.763376629281169E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1045,40 +1045,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.5500000117057141</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.5500000121029852</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.550000011659345</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.550000012149354</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.836778508014798E-13</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999995559</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999995508</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.972878570007113E-13</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999952986</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999952934</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1122,40 +1122,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.210646841688476E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.049784037966649E-19</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.210851995736852E-15</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.0421293683377E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.605166025002443E-15</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.210804413238758E-15</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.042129368337709E-14</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.921139436386392E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.921134227559119E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.042129368337712E-14</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.921134225793542E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.921139438151973E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.5500000116438886</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648105</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.550000011659345</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.550000012149354</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.945606877711518E-13</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938795</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999938743</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.972878570007113E-13</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999952986</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999952934</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1253,40 +1253,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.210646841688558E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-1.042108870153686E-14</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.210851994236201E-15</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.042129368337709E-14</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.302645970544384E-14</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.563209810040243E-14</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-5.210646841688502E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.921129015092715E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.92112380626543E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.210646841688476E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.921113383206186E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.921129016858284E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1307,40 +1307,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.5500000116438886</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648105</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.550000011659345</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.550000012149354</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.971275429021472E-13</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938795</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999938743</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.972878570007113E-13</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999952986</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999952934</v>
       </c>
     </row>
   </sheetData>
@@ -1528,40 +1528,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.084258736681596E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.307668452841354E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.03931788269557E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.042129368340798E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.307753573552859E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.039315378851152E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.287707886579781E-28</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.822488049437621E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.556049059660552E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.128678761776459E-28</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.822482408550455E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.556054928080148E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1582,40 +1582,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.6816683458635342</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4761907155779831</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.6816683458299189</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4761907156277296</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-6.288854850549837E-13</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422584245</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>158.109749165479</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-6.205422420711605E-13</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422552259</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>158.1097491642549</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1659,40 +1659,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.210646841703991E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.435953479827412E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.797732009101765E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.042129368340804E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.435868361684933E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-6.797757050114993E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-5.662619181438295E-29</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.940836541922223E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.185359180243782E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-5.210646841703879E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.940842182517901E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.185353312115673E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1713,40 +1713,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.6816683458187138</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156443119</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.6816683458299189</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156277296</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-6.226562458416891E-13</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541596</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>158.1097491638469</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-6.205422420711605E-13</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422552259</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>158.1097491642549</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1790,40 +1790,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.210646841703934E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.435795136622452E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.797732009101769E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-5.210646841703991E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.435710018479977E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-6.797757050114993E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.210646841704048E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.940827435518202E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.185359180243782E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.643393808882293E-29</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.94083307611388E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.185353312115673E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1844,40 +1844,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.6816683458187137</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156443119</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.6816683458299189</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156277296</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-6.212279505403383E-13</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541596</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>158.1097491638469</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-6.205422420711605E-13</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422552259</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>158.1097491642549</v>
       </c>
     </row>
   </sheetData>
@@ -2065,40 +2065,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.084258736681596E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.307668452841354E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.03931788269557E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.042129368340798E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.307753573552859E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.039315378851152E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.287707886579781E-28</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.822488049437621E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.556049059660552E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.128678761776459E-28</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.822482408550455E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.556054928080148E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2119,40 +2119,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.6816683458635342</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4761907155779831</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.6816683458299189</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4761907156277296</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-6.288854850549837E-13</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422584245</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>158.109749165479</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-6.205422420711605E-13</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422552259</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>158.1097491642549</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2196,40 +2196,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.210646841703991E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.435953479827412E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.797732009101765E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.042129368340804E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.435868361684933E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-6.797757050114993E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-5.662619181438295E-29</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.940836541922223E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.185359180243782E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-5.210646841703879E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.940842182517901E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.185353312115673E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2250,40 +2250,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.6816683458187138</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156443119</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.6816683458299189</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4761907156277296</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-6.226562458416891E-13</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541596</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>158.1097491638469</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-6.205422420711605E-13</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422552259</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>158.1097491642549</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2327,40 +2327,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.210646841703934E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.435795136622452E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.797732009101769E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-5.210646841703991E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.435710018479977E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-6.797757050114993E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.210646841704048E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.940827435518202E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.185359180243782E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.643393808882293E-29</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.94083307611388E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.185353312115673E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2381,40 +2381,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.6816683458187137</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156443119</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023812063</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.6816683458299189</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4761907156277296</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-6.212279505403383E-13</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422541596</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>158.1097491638469</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-6.205422420711605E-13</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-164.9034422552259</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>158.1097491642549</v>
       </c>
     </row>
   </sheetData>
@@ -2602,40 +2602,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.552713678801766E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.421095595621515E-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-4.737055518947875E-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.605323364454683E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.77643491572797E-14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.184316241386036E-14</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.894780628694845E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.763109016568832E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-4.763118493962691E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>9.473903143475267E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.763111384643055E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4.763113757412683E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2656,40 +2656,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999998168965</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.5000000001833285</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747434</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002254824</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>7.144117576039823E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999987748</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999987423</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>7.16721917733618E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999906007</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999905682</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2733,40 +2733,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4.736951571736005E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.357609981431025E-19</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>4.737288237752305E-15</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.184237892933942E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8.289404990224248E-15</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.368214626687363E-15</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>5.916135857528232E-28</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.587703005344472E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.587712480768135E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-4.736951571737485E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.587700636913307E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.587707743771944E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2787,40 +2787,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.499999999760692</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395336</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747434</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002254824</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>7.155859850560768E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.999999987876</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999878435</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>7.16721917733618E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999906007</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999905682</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2864,40 +2864,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.906589482774118E-28</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.737287333173553E-15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4.737288237399763E-15</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-4.736951571734819E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.184498148975635E-15</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>7.105166198999211E-15</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4.736951571736004E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.587712479247611E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.587712480768136E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-9.473903143472601E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.587700636913306E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.587717217675093E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2918,40 +2918,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997606921</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395337</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747434</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002254824</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>7.144313036649381E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.999999987876</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999878436</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>7.16721917733618E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999906007</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999905682</v>
       </c>
     </row>
   </sheetData>
@@ -3139,40 +3139,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.552713678801766E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.421095595621515E-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-4.737055518947875E-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.605323364454683E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.77643491572797E-14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.184316241386036E-14</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1.894780628694845E-14</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.763109016568832E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-4.763118493962691E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>9.473903143475267E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.763111384643055E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4.763113757412683E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3193,40 +3193,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999998168965</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.5000000001833285</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747434</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002254824</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>7.144117576039823E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999987748</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999987423</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>7.16721917733618E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999906007</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999905682</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3270,40 +3270,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4.736951571736005E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.357609981431025E-19</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>4.737288237752305E-15</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.184237892933942E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8.289404990224248E-15</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.368214626687363E-15</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>5.916135857528232E-28</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.587703005344472E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.587712480768135E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-4.736951571737485E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.587700636913307E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.587707743771944E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3324,40 +3324,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.499999999760692</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395336</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747434</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002254824</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>7.155859850560768E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.999999987876</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999878435</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>7.16721917733618E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999906007</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999905682</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3401,40 +3401,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.906589482774118E-28</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.737287333173553E-15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4.737288237399763E-15</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-4.736951571734819E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.184498148975635E-15</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>7.105166198999211E-15</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4.736951571736004E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.587712479247611E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.587712480768136E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-9.473903143472601E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.587700636913306E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.587717217675093E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3455,40 +3455,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997606921</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002395337</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000000423</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.4999999997747434</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.5000000002254824</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>7.144313036649381E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.999999987876</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999878436</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>7.16721917733618E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999906007</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999905682</v>
       </c>
     </row>
   </sheetData>
@@ -3676,40 +3676,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.131628207292669E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-5.559627580838559E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.551462566657041E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.421085471528442E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5.559711500741092E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.551466446699574E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-9.473903143524155E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.833137963673379E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.108896915251152E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>7.105427357643039E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.833135916763845E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.10889555111729E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3730,40 +3730,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903891093</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104140505</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607723</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104725049</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.658235015878767E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793302477</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>160.6235536346751</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.67663108287574E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>160.6235536296841</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3807,40 +3807,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-2.205988392947481E-28</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.853283559164799E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.171564137993419E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-4.736951571761251E-15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-1.853241259401868E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.171517451299201E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4.736951571761584E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.611048125505108E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.036315627142029E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-7.105427357642597E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.611055084294316E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.036308550193619E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3861,40 +3861,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513267</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919898</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607723</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104725049</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.66825241204079E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>160.6235536280204</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.67663108287574E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>160.6235536296841</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3938,40 +3938,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-2.19839579319442E-28</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.853283559164801E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.171575645274157E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-4.736951571761473E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.85317167182478E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.171542602753547E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4.736951571761583E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.611048125505108E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.03630650359908E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-2.368475785881013E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.611050854371328E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.036303306213465E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3992,40 +3992,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513267</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919897</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607723</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104725049</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.659068785930366E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>160.6235536280205</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.67663108287574E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>160.6235536296841</v>
       </c>
     </row>
   </sheetData>
@@ -4213,40 +4213,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.131628207292669E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-5.559627580838559E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.551462566657041E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.421085471528442E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5.559711500741092E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.551466446699574E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-9.473903143524155E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.833137963673379E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.108896915251152E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>7.105427357643039E-15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.833135916763845E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.10889555111729E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4267,40 +4267,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903891093</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104140505</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607723</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104725049</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.658235015878767E-12</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793302477</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>160.6235536346751</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.67663108287574E-12</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>160.6235536296841</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4344,40 +4344,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-2.205988392947481E-28</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.853283559164799E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.171564137993419E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-4.736951571761251E-15</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-1.853241259401868E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.171517451299201E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4.736951571761584E-15</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.611048125505108E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.036315627142029E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-7.105427357642597E-15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.611055084294316E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.036308550193619E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4398,40 +4398,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513267</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919898</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607723</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104725049</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.66825241204079E-12</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>160.6235536280204</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.67663108287574E-12</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>160.6235536296841</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4475,40 +4475,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-2.19839579319442E-28</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.853283559164801E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.171575645274157E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-4.736951571761473E-15</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1.85317167182478E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.171542602753547E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4.736951571761583E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.611048125505108E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.03630650359908E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-2.368475785881013E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.611050854371328E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.036303306213465E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4529,40 +4529,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903513267</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104919897</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.6078088903607723</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.4340870104725049</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.659068785930366E-12</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793222551</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>160.6235536280205</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.67663108287574E-12</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-166.2935793242533</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>160.6235536296841</v>
       </c>
     </row>
   </sheetData>
@@ -4750,40 +4750,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.948852278803814E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.36117827374677E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.383251899217681E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.948849257211245E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.361189064851576E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.383342140561971E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.630125998228526E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.854434963527077E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.853096512768842E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.630987714899145E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.854440604936706E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.853094786221779E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4804,40 +4804,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.3644696238511533</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.9700090737383885</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.9697945808475429</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.3644696238827395</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9700090737589316</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.9697945808329309</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.03433038500065311</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562165858</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8308801221837</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.03433039062433218</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562173028</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8308801232982</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4881,40 +4881,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.82951333826998E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.453598675535613E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.461105414551666E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.829509026972028E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.453587884998146E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.461096782107513E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.790111058348656E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.284826566851674E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.284360416697244E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.781475777091416E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.284820925506417E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.284355904669988E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4935,40 +4935,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.364469623893268</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9700090737657793</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.9697945808280602</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.3644696238827395</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9700090737589316</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.9697945808329309</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.034330392498915</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562175418</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.8308801236697</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.03433039062433218</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562173028</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8308801232982</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5012,40 +5012,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.829547867762942E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.453654407438024E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.461204287630946E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.82957808595794E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.453643616900561E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.461114046853991E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.790131747676096E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.284806788097952E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.284363202257898E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.781517155745591E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.284801146752695E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.284364928740593E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5066,40 +5066,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.3644696238932683</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9700090737657793</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.96979458082806</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.3644696238827395</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9700090737589316</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.9697945808329309</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.03433039249891044</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562175418</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.8308801236697</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.03433039062433218</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562173028</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8308801232982</v>
       </c>
     </row>
   </sheetData>
@@ -5287,40 +5287,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.948852278803814E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.36117827374677E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.383251899217681E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.948849257211245E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.361189064851576E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.383342140561971E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.630125998228526E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.854434963527077E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.853096512768842E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.630987714899145E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.854440604936706E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.853094786221779E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5341,40 +5341,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.3644696238511533</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.9700090737383885</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.9697945808475429</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.3644696238827395</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9700090737589316</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.9697945808329309</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.03433038500065311</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562165858</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8308801221837</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.03433039062433218</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562173028</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8308801232982</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5418,40 +5418,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.82951333826998E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.453598675535613E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.461105414551666E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.829509026972028E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.453587884998146E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.461096782107513E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.790111058348656E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.284826566851674E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.284360416697244E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.781475777091416E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.284820925506417E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.284355904669988E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5472,40 +5472,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.364469623893268</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9700090737657793</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.9697945808280602</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.3644696238827395</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9700090737589316</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.9697945808329309</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.034330392498915</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562175418</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.8308801236697</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.03433039062433218</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562173028</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8308801232982</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5549,40 +5549,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.829547867762942E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.453654407438024E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.461204287630946E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.82957808595794E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.453643616900561E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.461114046853991E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.790131747676096E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.284806788097952E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.284363202257898E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.781517155745591E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.284801146752695E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.284364928740593E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5603,40 +5603,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.3644696238932683</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9700090737657793</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.96979458082806</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.3644696238827395</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9700090737589316</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.9697945808329309</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.03433039249891044</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562175418</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.8308801236697</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.03433039062433218</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8284562173028</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8308801232982</v>
       </c>
     </row>
   </sheetData>
@@ -5824,40 +5824,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.139230960258052E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.401001236906836E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.686248511256299E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.139223049248077E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.401003394518303E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.686368288730432E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.422979404615746E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2.225699931546019E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.93717891484857E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.422977872539598E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2.225706282607685E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.937175318845565E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5878,40 +5878,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.6185866318521954</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.9439982598637419</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>1.056026550193089</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.6185866318618083</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9439982598799631</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>1.056026550181405</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.95931300975645</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.7637340183835</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.710888647499</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.95931300684552</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.763734018543</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.7108886481259</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5955,40 +5955,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.046413723506167E-09</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.669981231955315E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.622361590754508E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.046414766936622E-09</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-4.669959656109716E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.621786766136012E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-4.743191681234781E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>7.419117744230544E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-9.79058517163104E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4.743253394900834E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-7.419054233919184E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9.790654658349743E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6009,40 +6009,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.6185866318650125</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9439982598853702</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>1.056026550177509</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.6185866318618083</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9439982598799631</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>1.056026550181405</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.9593130058752</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.7637340185962</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.7108886483349</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.95931300684552</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.763734018543</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.7108886481259</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6086,40 +6086,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.046412609368879E-09</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.669952464206025E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.620636587204378E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.046414766936622E-09</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-4.669973228542559E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.619726492646591E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-4.74324921673336E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>7.419033063866279E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-9.790532501517825E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4.743253394900834E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-7.418955169680275E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>9.790664282979748E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6140,40 +6140,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.6185866318650125</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9439982598853702</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>1.056026550177509</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.6185866318618083</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9439982598799631</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>1.056026550181405</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.95931300587521</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.7637340185962</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.7108886483349</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.95931300684552</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.763734018543</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.7108886481259</v>
       </c>
     </row>
   </sheetData>
@@ -6586,40 +6586,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.139230960258052E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.401001236906836E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.686248511256299E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.139223049248077E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.401003394518303E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.686368288730432E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.422979404615746E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2.225699931546019E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.93717891484857E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.422977872539598E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2.225706282607685E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.937175318845565E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6640,40 +6640,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.6185866318521954</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.9439982598637419</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>1.056026550193089</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.6185866318618083</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.9439982598799631</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>1.056026550181405</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.95931300975645</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.7637340183835</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.710888647499</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.95931300684552</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.763734018543</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.7108886481259</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6717,40 +6717,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.046413723506167E-09</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.669981231955315E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.622361590754508E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.046414766936622E-09</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-4.669959656109716E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.621786766136012E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-4.743191681234781E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>7.419117744230544E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-9.79058517163104E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4.743253394900834E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-7.419054233919184E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9.790654658349743E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6771,40 +6771,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.6185866318650125</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.9439982598853702</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>1.056026550177509</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.6185866318618083</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.9439982598799631</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>1.056026550181405</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.9593130058752</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.7637340185962</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.7108886483349</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.95931300684552</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.763734018543</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.7108886481259</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6848,40 +6848,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.046412609368879E-09</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.669952464206025E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.620636587204378E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.046414766936622E-09</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-4.669973228542559E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.619726492646591E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-4.74324921673336E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>7.419033063866279E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-9.790532501517825E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4.743253394900834E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-7.418955169680275E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>9.790664282979748E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6902,40 +6902,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.6185866318650125</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.9439982598853702</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>1.056026550177509</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.6185866318618083</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.9439982598799631</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>1.056026550181405</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.95931300587521</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.7637340185962</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.7108886483349</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.95931300684552</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.763734018543</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.7108886481259</v>
       </c>
     </row>
   </sheetData>
@@ -7123,40 +7123,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.43606616937874E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.079264541404717E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.100939749560473E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.436061072726915E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.079325629610393E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.100893906200762E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.481852105172818E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.186851165761912E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.185577558364485E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.482240938853895E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.186855314236948E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.185586938061144E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7177,40 +7177,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.3310660019363496</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464758492</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672377854</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.331066001991481</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464970032</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672269781</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.03897125582258624</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771664496</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8224244169476</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.03897126144789175</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771680097</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8224244189051</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7254,40 +7254,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.120220569953313E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.026539372386705E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.033746311620018E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.120240164543407E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.026429415328333E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.033799997096963E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.267613937890354E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.062278634346548E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.06187428637372E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.27938882963267E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.062271167192643E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.061869008410877E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7308,40 +7308,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.3310660020098584</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8818141465040545</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672233758</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.331066001991481</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464970032</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672269781</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.03897126332302632</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771685297</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.8224244195576</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.03897126144789175</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771680097</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8224244189051</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7385,40 +7385,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.120189183754537E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.026452483475789E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.033661261165338E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.120177445480008E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.026404069223499E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.033694437707004E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.298957469347475E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.062288800358096E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.061863157194993E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.263663729760145E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.062280157021749E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.061858271292964E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7439,40 +7439,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.3310660020098583</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.8818141465040545</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672233758</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.331066001991481</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464970032</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672269781</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.03897126332302494</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771685298</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.8224244195576</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.03897126144789175</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771680097</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8224244189051</v>
       </c>
     </row>
   </sheetData>
@@ -7660,40 +7660,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.43606616937874E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.079264541404717E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.100939749560473E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.436061072726915E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.079325629610393E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.100893906200762E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.481852105172818E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-3.186851165761912E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3.185577558364485E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.482240938853895E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3.186855314236948E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-3.185586938061144E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7714,40 +7714,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.3310660019363496</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464758492</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672377854</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.331066001991481</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464970032</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672269781</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.03897125582258624</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771664496</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>100.8224244169476</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.03897126144789175</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771680097</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>100.8224244189051</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7791,40 +7791,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.120220569953313E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.026539372386705E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.033746311620018E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.120240164543407E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.026429415328333E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.033799997096963E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.267613937890354E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.062278634346548E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1.06187428637372E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.27938882963267E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1.062271167192643E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.061869008410877E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7845,40 +7845,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.3310660020098584</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8818141465040545</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672233758</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.331066001991481</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464970032</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672269781</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.03897126332302632</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771685297</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>100.8224244195576</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.03897126144789175</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771680097</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>100.8224244189051</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7922,40 +7922,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.120189183754537E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.026452483475789E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.033661261165338E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.120177445480008E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.026404069223499E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.033694437707004E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.298957469347475E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.062288800358096E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-1.061863157194993E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.263663729760145E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1.062280157021749E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.061858271292964E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7976,40 +7976,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.3310660020098583</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.8818141465040545</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672233758</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.331066001991481</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8818141464970032</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.8815929672269781</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.03897126332302494</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771685298</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>100.8224244195576</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.03897126144789175</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-100.8196771680097</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>100.8224244189051</v>
       </c>
     </row>
   </sheetData>
@@ -8197,40 +8197,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.62468419922141E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.141984830314202E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.703527060924563E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.624688217145407E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.141989949824546E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.70346992396757E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.121949914805532E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1.951315550410039E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.512263195282574E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.12194938069559E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.95131815247232E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.512271913844082E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8251,40 +8251,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.5411436570098723</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491768868</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544937142</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.5411436570370166</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491969345</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544834066</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.86424712076079</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.0574514187748</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.1597915285546</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.86424711684463</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.05745141952</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.1597915297845</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8328,40 +8328,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.748935719234559E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.806665903045302E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.678248301046935E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.748945890381672E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-3.806617643676442E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.678728351788777E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-3.739848221146172E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6.504297746010331E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-8.374231424025065E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3.739863224171946E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-6.504313479893368E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>8.374193970662447E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8382,40 +8382,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.5411436570460647</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8572501492036169</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544799707</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.5411436570370166</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491969345</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544834066</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.86424711553923</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.0574514197684</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.1597915301944</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.86424711684463</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.05745141952</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.1597915297845</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8459,40 +8459,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.748885370699403E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.806662121726288E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.677905234913241E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.74884277755618E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-3.80657903622765E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.678385285655089E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-3.739838558125435E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>6.504384401258258E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-8.374194278632798E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3.739856485264261E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-6.504326067027157E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>8.37415682527018E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8513,40 +8513,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.5411436570460646</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.857250149203617</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544799709</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.5411436570370166</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491969345</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544834066</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.86424711553923</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.0574514197684</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.1597915301944</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.86424711684463</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.05745141952</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.1597915297845</v>
       </c>
     </row>
   </sheetData>
@@ -8734,40 +8734,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.62468419922141E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.141984830314202E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-1.703527060924563E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.624688217145407E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.141989949824546E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.70346992396757E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.121949914805532E-09</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1.951315550410039E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2.512263195282574E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.12194938069559E-09</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.95131815247232E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-2.512271913844082E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8788,40 +8788,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.5411436570098723</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491768868</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544937142</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.5411436570370166</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491969345</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544834066</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-10.86424712076079</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-108.0574514187748</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>106.1597915285546</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.86424711684463</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-108.05745141952</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>106.1597915297845</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8865,40 +8865,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.748935719234559E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.806665903045302E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.678248301046935E-11</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.748945890381672E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-3.806617643676442E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.678728351788777E-11</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-3.739848221146172E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6.504297746010331E-10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-8.374231424025065E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3.739863224171946E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-6.504313479893368E-10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>8.374193970662447E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8919,40 +8919,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.5411436570460647</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.8572501492036169</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544799707</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.5411436570370166</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491969345</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544834066</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-10.86424711553923</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-108.0574514197684</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>106.1597915301944</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.86424711684463</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-108.05745141952</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>106.1597915297845</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8996,40 +8996,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.748885370699403E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.806662121726288E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.677905234913241E-11</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.74884277755618E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-3.80657903622765E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5.678385285655089E-11</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-3.739838558125435E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>6.504384401258258E-10</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-8.374194278632798E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3.739856485264261E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-6.504326067027157E-10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>8.37415682527018E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9050,40 +9050,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.5411436570460646</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.857250149203617</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544799709</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.5411436570370166</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.8572501491969345</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.9547462544834066</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-10.86424711553923</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-108.0574514197684</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>106.1597915301944</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.86424711684463</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-108.05745141952</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>106.1597915297845</v>
       </c>
     </row>
   </sheetData>
@@ -9271,40 +9271,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.96660829812172E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.427996970945706E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.405131107513408E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.96660829818593E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.428048920073654E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.405061824624247E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.650803721191047E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.830044220831226E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.831367898030571E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.650803794043657E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.83004248710321E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.831374823105338E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9325,40 +9325,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.7311297291053569</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.3655648643426971</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.3655648647625979</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.7311297291211976</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.3655648643042607</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.3655648648168751</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.01721676665834927</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832337018</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>-179.9827832329724</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.01721676806428361</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832258884</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>-179.9827832379739</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9402,40 +9402,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.888659707974041E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.47611447117792E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.468284626950249E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.888694341162332E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.475993238665335E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.468353913789628E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.789824641325084E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.276692947670636E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.277141101197594E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.78983496730361E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.27668775638012E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.277134176571021E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9456,40 +9456,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.7311297291264776</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.3655648642914486</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.3655648648349675</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.7311297291211976</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.3655648643042607</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.3655648648168751</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.01721676853292048</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832232839</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>-179.9827832396411</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.01721676806428361</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832258884</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>-179.9827832379739</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9533,40 +9533,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.888625053900559E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.475906629992551E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.468284668577925E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.888659707902699E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.475923930518411E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.46842322193662E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.859080753665452E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.276679100610951E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.27712724789373E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.789824560379723E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.276673905157663E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.277120325348543E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9587,40 +9587,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.7311297291264776</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.3655648642914484</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.3655648648349674</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.7311297291211976</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.3655648643042607</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.3655648648168751</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.01721676853292721</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.982783223284</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>-179.9827832396411</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.01721676806428361</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832258884</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>-179.9827832379739</v>
       </c>
     </row>
   </sheetData>
@@ -9808,40 +9808,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.96660829812172E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-7.427996970945706E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-7.405131107513408E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.96660829818593E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.428048920073654E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.405061824624247E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.650803721191047E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.830044220831226E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.831367898030571E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.650803794043657E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.83004248710321E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.831374823105338E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9862,40 +9862,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.7311297291053569</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.3655648643426971</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.3655648647625979</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.7311297291211976</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.3655648643042607</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.3655648648168751</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.01721676665834927</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832337018</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>-179.9827832329724</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.01721676806428361</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832258884</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>-179.9827832379739</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9939,40 +9939,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.888659707974041E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.47611447117792E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.468284626950249E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-9.888694341162332E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.475993238665335E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.468353913789628E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.789824641325084E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.276692947670636E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.277141101197594E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.78983496730361E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.27668775638012E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.277134176571021E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9993,40 +9993,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.7311297291264776</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.3655648642914486</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.3655648648349675</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.7311297291211976</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.3655648643042607</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.3655648648168751</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.01721676853292048</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832232839</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>-179.9827832396411</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.01721676806428361</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832258884</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>-179.9827832379739</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10070,40 +10070,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.888625053900559E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.475906629992551E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.468284668577925E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-9.888659707902699E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.475923930518411E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.46842322193662E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.859080753665452E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.276679100610951E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.27712724789373E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.789824560379723E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.276673905157663E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.277120325348543E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10124,40 +10124,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.7311297291264776</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.3655648642914484</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.3655648648349674</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.7311297291211976</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.3655648643042607</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.3655648648168751</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.01721676853292721</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.982783223284</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>-179.9827832396411</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.01721676806428361</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9827832258884</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>-179.9827832379739</v>
       </c>
     </row>
   </sheetData>
@@ -10345,40 +10345,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.278244205623962E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.906626919127959E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-3.133047998740991E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.278235843444383E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.906626919339085E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.13305450493675E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.137861472116871E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.34531115134712E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-7.970611852194988E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-7.13789629692216E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.345311151107573E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>7.970663829378361E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10399,40 +10399,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.8551989639615549</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.6449366187237568</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4394789399935319</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.8551989639682511</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.6449366187054727</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4394789400293606</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.95534039100348</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771790802</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>128.6205387876491</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.955340389995625</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771755836</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>128.6205387908396</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10476,40 +10476,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.594230473805237E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6.355495227221011E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.044356699147923E-09</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-7.594273682001273E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-6.355440386641033E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-1.044346285894476E-09</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-2.379455332871776E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.448447120371525E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.656822883544955E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.379417713400057E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.448449814518525E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.656686403777472E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10530,40 +10530,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.8551989639704831</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.644936618699378</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4394789400413032</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.8551989639682511</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.6449366187054727</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4394789400293606</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.955340389659675</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771744181</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>128.6205387919032</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.955340389995625</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771755836</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>128.6205387908396</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10607,40 +10607,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.594230473805237E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>6.355440386875619E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.044356699147923E-09</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-7.594276476361158E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-6.35533070595025E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.04434368715503E-09</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-2.379455332871776E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.448449814491909E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.656822883544953E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2.379377299530135E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.448455202759293E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.656718933701082E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10661,40 +10661,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.8551989639704831</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.6449366186993779</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4394789400413031</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.8551989639682511</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.6449366187054727</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4394789400293606</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.955340389659674</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771744181</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>128.6205387919032</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.955340389995625</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771755836</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>128.6205387908396</v>
       </c>
     </row>
   </sheetData>
@@ -10882,40 +10882,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.278244205623962E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.906626919127959E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-3.133047998740991E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.278235843444383E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.906626919339085E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.13305450493675E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.137861472116871E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.34531115134712E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-7.970611852194988E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-7.13789629692216E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.345311151107573E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>7.970663829378361E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10936,40 +10936,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>0.8551989639615549</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.6449366187237568</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.4394789399935319</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>0.8551989639682511</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.6449366187054727</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.4394789400293606</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.95534039100348</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771790802</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>128.6205387876491</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.955340389995625</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771755836</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>128.6205387908396</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11013,40 +11013,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.594230473805237E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6.355495227221011E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.044356699147923E-09</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-7.594273682001273E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-6.355440386641033E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-1.044346285894476E-09</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-2.379455332871776E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.448447120371525E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.656822883544955E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.379417713400057E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.448449814518525E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.656686403777472E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11067,40 +11067,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>0.8551989639704831</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.644936618699378</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.4394789400413032</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>0.8551989639682511</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.6449366187054727</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.4394789400293606</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.955340389659675</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771744181</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>128.6205387919032</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.955340389995625</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771755836</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>128.6205387908396</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11144,40 +11144,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.594230473805237E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>6.355440386875619E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.044356699147923E-09</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-7.594276476361158E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-6.35533070595025E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.04434368715503E-09</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-2.379455332871776E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.448449814491909E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.656822883544953E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2.379377299530135E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.448455202759293E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.656718933701082E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11198,40 +11198,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>0.8551989639704831</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.6449366186993779</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.4394789400413031</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>0.8551989639682511</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.6449366187054727</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.4394789400293606</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.955340389659674</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771744181</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>128.6205387919032</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.955340389995625</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-153.8366771755836</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>128.6205387908396</v>
       </c>
     </row>
   </sheetData>
@@ -11419,40 +11419,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.452746860921395E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.142737018056352E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.121028776668043E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.452740565567827E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.142713415803917E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.121075970103127E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.508155663829762E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.163941780040771E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.165191141295614E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.511300767008906E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.163940206834309E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.165197437704971E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11473,40 +11473,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.6643916361876208</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179292042</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958182583916</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.6643916362152809</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179009054</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183143511</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.01955212037771212</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478777413</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>-179.9804478815629</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.01955212178405533</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478640294</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>-179.9804478924622</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11550,40 +11550,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.175676012026265E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.047495076903116E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.040342914370658E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.175770427637542E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.047518696160731E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.040358649541211E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.328997120386825E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.054645164565187E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.055067910204858E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.32902927264624E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.054649884592217E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.05506791069554E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11604,40 +11604,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.6643916362245008</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958178914721</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183330042</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.6643916362152809</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179009054</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183143511</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.0195521222528153</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478594587</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>-179.9804478960953</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.01955212178405533</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478640294</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>-179.9804478924622</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11681,40 +11681,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.175738955842706E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.04755804219906E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.040342914370655E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.175801899545763E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.047518706900494E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.04032717763297E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.329018599894767E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.054651456798875E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.055067910204858E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.329040012400747E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.054653031783037E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.055067909621565E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11735,40 +11735,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.6643916362245007</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958178914724</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183330042</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.6643916362152809</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179009054</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183143511</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.01955212225280423</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478594586</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>-179.9804478960953</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.01955212178405533</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478640294</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>-179.9804478924622</v>
       </c>
     </row>
   </sheetData>
@@ -12181,40 +12181,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.452746860921395E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-6.142737018056352E-10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-6.121028776668043E-10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.452740565567827E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.142713415803917E-10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.121075970103127E-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2.508155663829762E-12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.163941780040771E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3.165191141295614E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2.511300767008906E-12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.163940206834309E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.165197437704971E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12235,40 +12235,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.6643916361876208</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179292042</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958182583916</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.6643916362152809</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179009054</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183143511</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.01955212037771212</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478777413</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>-179.9804478815629</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.01955212178405533</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478640294</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>-179.9804478924622</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12312,40 +12312,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.175676012026265E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.047495076903116E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.040342914370658E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-8.175770427637542E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-2.047518696160731E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2.040358649541211E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.328997120386825E-13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.054645164565187E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.055067910204858E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.32902927264624E-13</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.054649884592217E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.05506791069554E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12366,40 +12366,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.6643916362245008</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958178914721</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183330042</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.6643916362152809</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179009054</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183143511</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.0195521222528153</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478594587</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>-179.9804478960953</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.01955212178405533</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478640294</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>-179.9804478924622</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12443,40 +12443,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.175738955842706E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.04755804219906E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.040342914370655E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-8.175801899545763E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-2.047518706900494E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2.04032717763297E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8.329018599894767E-13</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.054651456798875E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.055067910204858E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-8.329040012400747E-13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.054653031783037E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.055067909621565E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12497,40 +12497,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.6643916362245007</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958178914724</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183330042</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.6643916362152809</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958179009054</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3321958183143511</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.01955212225280423</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478594586</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>-179.9804478960953</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.01955212178405533</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9804478640294</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>-179.9804478924622</v>
       </c>
     </row>
   </sheetData>
@@ -12718,40 +12718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-1.947744388651866E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.540744528256032E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.507006693008211E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.947741427811108E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.540751231940853E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.507011761602467E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.630669629940862E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.619464621934545E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-8.229334605776862E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.63070405653439E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.619461583914553E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>8.229331404763876E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12772,40 +12772,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.7668755422478442</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026650233</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3790339612538892</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.7668755422636134</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026570954</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613130241</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.827350193669957</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588726781</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>131.3836767675836</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.827350192419488</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588665891</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>131.3836767695502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12849,40 +12849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.492431755998026E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5.135877054261896E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.356725969673412E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-6.492496397974308E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-5.135810020640606E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-8.356708164586592E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-1.876904766191868E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.206493234531621E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.743160083087498E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.876890886878215E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.20649627236092E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.743180289900909E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12903,40 +12903,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.76687554226887</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026544528</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613327354</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.7668755422636134</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026570954</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613130241</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.827350192002673</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588645594</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>131.3836767702058</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.827350192419488</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588665891</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>131.3836767695502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12980,40 +12980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.492430543596789E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5.135877054261899E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.356710896726913E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-6.49246015246962E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-5.135810020640606E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-8.356666148904522E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-1.876922888944213E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.206493234531621E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.743122872141548E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.876888462075744E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.20649627236092E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.743119339376794E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13034,40 +13034,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.7668755422688698</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026544529</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613327353</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.7668755422636134</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026570954</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613130241</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.827350192002685</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588645594</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>131.3836767702059</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.827350192419488</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588665891</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>131.3836767695502</v>
       </c>
     </row>
   </sheetData>
@@ -13255,40 +13255,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-1.947744388651866E-09</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.540744528256032E-09</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.507006693008211E-09</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.947741427811108E-09</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.540751231940853E-09</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.507011761602467E-09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.630669629940862E-10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3.619464621934545E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-8.229334605776862E-10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-5.63070405653439E-10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-3.619461583914553E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>8.229331404763876E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13309,40 +13309,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.7668755422478442</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026650233</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.3790339612538892</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.7668755422636134</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026570954</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613130241</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-3.827350193669957</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588726781</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>131.3836767675836</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-3.827350192419488</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588665891</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>131.3836767695502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13386,40 +13386,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.492431755998026E-10</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5.135877054261896E-10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.356725969673412E-10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-6.492496397974308E-10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-5.135810020640606E-10</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-8.356708164586592E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-1.876904766191868E-10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.206493234531621E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.743160083087498E-10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.876890886878215E-10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.20649627236092E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-2.743180289900909E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13440,40 +13440,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.76687554226887</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026544528</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613327354</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.7668755422636134</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026570954</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613130241</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-3.827350192002673</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588645594</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>131.3836767702058</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-3.827350192419488</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588665891</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>131.3836767695502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13517,40 +13517,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.492430543596789E-10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5.135877054261899E-10</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.356710896726913E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-6.49246015246962E-10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-5.135810020640606E-10</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-8.356666148904522E-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-1.876922888944213E-10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.206493234531621E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.743122872141548E-10</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.876888462075744E-10</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.20649627236092E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-2.743119339376794E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13571,40 +13571,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.7668755422688698</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026544529</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613327353</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.7668755422636134</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.5649615026570954</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.3790339613130241</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-3.827350192002685</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588645594</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>131.3836767702059</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-3.827350192419488</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-155.6209588665891</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>131.3836767695502</v>
       </c>
     </row>
   </sheetData>
@@ -14917,40 +14917,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-4.68958215751968E-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.042133761387142E-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-5.210691300231216E-15</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.647452789181977E-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.344838296034032E-14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-5.210174139739508E-15</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.210646841688297E-15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.763387045926005E-09</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-5.763392260735808E-09</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.042129368337687E-14</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-5.763392256086945E-09</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5.763376629281169E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14971,40 +14971,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AG2">
-        <v>1.100000023841858</v>
+        <v>0.5500000117057141</v>
       </c>
       <c r="AH2">
-        <v>1.100000023841858</v>
+        <v>0.5500000121029852</v>
       </c>
       <c r="AI2">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023841858</v>
+        <v>0.550000011659345</v>
       </c>
       <c r="AK2">
-        <v>1.100000023841858</v>
+        <v>0.550000012149354</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.836778508014798E-13</v>
       </c>
       <c r="AM2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999995559</v>
       </c>
       <c r="AN2">
-        <v>119.9999999999952</v>
+        <v>179.9999999995508</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2.972878570007113E-13</v>
       </c>
       <c r="AP2">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999952986</v>
       </c>
       <c r="AQ2">
-        <v>119.9999999999952</v>
+        <v>179.9999999952934</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15048,40 +15048,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.210646841688476E-15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.049784037966649E-19</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.210851995736852E-15</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.0421293683377E-14</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.605166025002443E-15</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-5.210804413238758E-15</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.042129368337709E-14</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-1.921139436386392E-09</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.921134227559119E-09</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.042129368337712E-14</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.921134225793542E-09</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-1.921139438151973E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15102,40 +15102,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AG3">
-        <v>1.100000023841858</v>
+        <v>0.5500000116438886</v>
       </c>
       <c r="AH3">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648105</v>
       </c>
       <c r="AI3">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023841858</v>
+        <v>0.550000011659345</v>
       </c>
       <c r="AK3">
-        <v>1.100000023841858</v>
+        <v>0.550000012149354</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.945606877711518E-13</v>
       </c>
       <c r="AM3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938795</v>
       </c>
       <c r="AN3">
-        <v>119.9999999999952</v>
+        <v>179.9999999938743</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>2.972878570007113E-13</v>
       </c>
       <c r="AP3">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999952986</v>
       </c>
       <c r="AQ3">
-        <v>119.9999999999952</v>
+        <v>179.9999999952934</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15179,40 +15179,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.210646841688558E-15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-1.042108870153686E-14</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.210851994236201E-15</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.042129368337709E-14</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.302645970544384E-14</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1.563209810040243E-14</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-5.210646841688502E-15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1.921129015092715E-09</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.92112380626543E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.210646841688476E-15</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.921113383206186E-09</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.921129016858284E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15233,40 +15233,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AG4">
-        <v>1.100000023841858</v>
+        <v>0.5500000116438886</v>
       </c>
       <c r="AH4">
-        <v>1.100000023841858</v>
+        <v>0.5500000121648105</v>
       </c>
       <c r="AI4">
-        <v>1.100000023841858</v>
+        <v>1.100000023808799</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023841858</v>
+        <v>0.550000011659345</v>
       </c>
       <c r="AK4">
-        <v>1.100000023841858</v>
+        <v>0.550000012149354</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.971275429021472E-13</v>
       </c>
       <c r="AM4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999938795</v>
       </c>
       <c r="AN4">
-        <v>119.9999999999952</v>
+        <v>179.9999999938743</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>2.972878570007113E-13</v>
       </c>
       <c r="AP4">
-        <v>-119.9999999999952</v>
+        <v>-179.9999999952986</v>
       </c>
       <c r="AQ4">
-        <v>119.9999999999952</v>
+        <v>179.9999999952934</v>
       </c>
     </row>
   </sheetData>
